--- a/Team-Data/2012-13/2-21-2012-13.xlsx
+++ b/Team-Data/2012-13/2-21-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,13 +817,13 @@
         <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -792,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -962,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>7</v>
@@ -1171,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
         <v>3</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.574</v>
+        <v>0.585</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>13.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P6" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.779</v>
@@ -1442,16 +1509,16 @@
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
@@ -1460,52 +1527,52 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.7</v>
+        <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2048,7 +2115,7 @@
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>18</v>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2455,16 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2779,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -2850,70 +2917,70 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.704</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
         <v>20.8</v>
@@ -2922,10 +2989,10 @@
         <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2961,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,13 +3040,13 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>17</v>
@@ -3003,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3155,13 +3222,13 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3316,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.493</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>8.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.9</v>
+        <v>103.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3501,13 +3568,13 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,37 +3586,37 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4089,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4459,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4984,7 +5051,7 @@
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>8</v>
@@ -5157,7 +5224,7 @@
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5348,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.786</v>
+        <v>0.782</v>
       </c>
       <c r="H28" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
         <v>0.792</v>
@@ -5443,16 +5510,16 @@
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
@@ -5464,19 +5531,19 @@
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,37 +5588,37 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="n">
         <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5685,13 +5752,13 @@
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5888,13 +5955,13 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2012-13</t>
+          <t>2013-02-21</t>
         </is>
       </c>
     </row>
